--- a/biology/Botanique/Polypodiales/Polypodiales.xlsx
+++ b/biology/Botanique/Polypodiales/Polypodiales.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Polypodiales (ou Filicales) sont un ordre de plantes qui comprend plus de 80 % des espèces de fougères actuelles. Ce type de plantes se trouve couramment sur les murs et les troncs des arbres. Elles sont présentes sous toutes les latitudes que ce soit sous climat tropical, subtropical ou tempéré.
 Selon une étude récente[Quand ?], les Polypodiales regrouperaient les fougères les plus « évoluées ». Les fougères polypodioïdes sont dérivées des fougères dryoptéroïdes, via les fougères davallioïdes[réf. nécessaire].
@@ -512,9 +524,11 @@
           <t>Liste des familles</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Les 15 familles de Polypodiales sont[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Les 15 familles de Polypodiales sont :
 Lindsaeaceae
 Saccolomataceae
 Dennstaedtiaceae
@@ -567,10 +581,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Phylogénie externe
-Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016)[2] :
-Phylogénie interne
-En 2016, le Pteridophyte Phylogeny Group a publié un cladogramme consensuel, basé sur « de nombreuses études phylogénétiques » entre 2001 et 2015. Le sous-arbre de l'ordre Polypodiales est[2] :
+          <t>Phylogénie externe</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Phylogénie des Ptéridophytes actuelles d'après le Pteridophyte Phylogeny Group (2016) :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Polypodiales</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Polypodiales</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Phylogénie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Phylogénie interne</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2016, le Pteridophyte Phylogeny Group a publié un cladogramme consensuel, basé sur « de nombreuses études phylogénétiques » entre 2001 et 2015. Le sous-arbre de l'ordre Polypodiales est :
 </t>
         </is>
       </c>
